--- a/stored_variables/Geometry.xlsx
+++ b/stored_variables/Geometry.xlsx
@@ -1,37 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a072c4107c712a46/Documents/Oxford Physics/Year 3/B8/b8_xspeds/stored_variables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E8D9D7B93DD1D0494B193511596F50F1618DF955" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3CDD13-ECE3-4F56-8DAB-B083C4FDEFC6}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="30195" yWindow="-2835" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>image_index</t>
+  </si>
+  <si>
+    <t>crys_pitch</t>
+  </si>
+  <si>
+    <t>crys_roll</t>
+  </si>
+  <si>
+    <t>cam_pitch</t>
+  </si>
+  <si>
+    <t>cam_roll</t>
+  </si>
+  <si>
+    <t>r_cam</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +75,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,269 +399,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>image_index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>crys_pitch</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>crys_roll</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cam_pitch</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>cam_roll</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>r_cam</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>-0.3438445344824624</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0184075485922343</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8244282554634106</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.005539341923014956</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.08389874349036816</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>-0.3440129343551165</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01839374857926758</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8062915705268676</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.005516230424817319</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.08390241080281408</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>-0.3444766480893998</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01891147820158594</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8072709752124301</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.005256872665372612</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.08389444304999429</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-0.34384453448246238</v>
+      </c>
+      <c r="C2">
+        <v>1.8407548592234299E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.82442825546341059</v>
+      </c>
+      <c r="E2">
+        <v>-5.5393419230149558E-3</v>
+      </c>
+      <c r="F2">
+        <v>8.3898743490368161E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-0.34401293435511648</v>
+      </c>
+      <c r="C3">
+        <v>1.839374857926758E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.80629157052686762</v>
+      </c>
+      <c r="E3">
+        <v>-5.5162304248173189E-3</v>
+      </c>
+      <c r="F3">
+        <v>8.3902410802814076E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-0.34447664808939982</v>
+      </c>
+      <c r="C4">
+        <v>1.8911478201585941E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.80727097521243008</v>
+      </c>
+      <c r="E4">
+        <v>-5.2568726653726121E-3</v>
+      </c>
+      <c r="F4">
+        <v>8.3894443049994286E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-0.3441934583209762</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.01838808941457187</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8058582958324182</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.005504542105596508</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.08390256598593945</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5">
+        <v>1.838808941457187E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.80585829583241819</v>
+      </c>
+      <c r="E5">
+        <v>-5.5045421055965084E-3</v>
+      </c>
+      <c r="F5">
+        <v>8.3902565985939453E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.3441096528411506</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01840625126974439</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8091428405196358</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.005489103815127947</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0839021187490599</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>-0.34410965284115058</v>
+      </c>
+      <c r="C6">
+        <v>1.8406251269744388E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.80914284051963581</v>
+      </c>
+      <c r="E6">
+        <v>-5.4891038151279473E-3</v>
+      </c>
+      <c r="F6">
+        <v>8.3902118749059895E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
-        <v>-0.3444440478498165</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01860907373461845</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8079852829923586</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.005396468826860366</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0839015643230161</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>-0.34444404784981653</v>
+      </c>
+      <c r="C7">
+        <v>1.860907373461845E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.80798528299235861</v>
+      </c>
+      <c r="E7">
+        <v>-5.3964688268603664E-3</v>
+      </c>
+      <c r="F7">
+        <v>8.3901564323016098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>11</v>
       </c>
-      <c r="B8" t="n">
-        <v>-0.3451581090632109</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01849951290948194</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7937663703651305</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.005439310983101026</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.08390143906064645</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>-0.34515810906321093</v>
+      </c>
+      <c r="C8">
+        <v>1.849951290948194E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.79376637036513054</v>
+      </c>
+      <c r="E8">
+        <v>-5.4393109831010261E-3</v>
+      </c>
+      <c r="F8">
+        <v>8.3901439060646454E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
-        <v>-0.3442437386599654</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0186836685981478</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9">
+        <v>-0.34424373865996538</v>
+      </c>
+      <c r="C9">
+        <v>1.8683668598147799E-2</v>
+      </c>
+      <c r="D9">
         <v>0.8025235183231697</v>
       </c>
-      <c r="E9" t="n">
-        <v>-0.00544895831506903</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.08390003808090209</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="E9">
+        <v>-5.4489583150690302E-3</v>
+      </c>
+      <c r="F9">
+        <v>8.3900038080902087E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>16</v>
       </c>
-      <c r="B10" t="n">
-        <v>-0.345389218026007</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01873160347902922</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7888466602838652</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.005374672132060478</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0839051499439662</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10">
+        <v>-0.34538921802600703</v>
+      </c>
+      <c r="C10">
+        <v>1.8731603479029219E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.78884666028386519</v>
+      </c>
+      <c r="E10">
+        <v>-5.3746721320604776E-3</v>
+      </c>
+      <c r="F10">
+        <v>8.3905149943966195E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>17</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0.3456246261882794</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01875005681339884</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7748682519954072</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.005092698868739609</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.08390672603514948</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11">
+        <v>-0.34562462618827938</v>
+      </c>
+      <c r="C11">
+        <v>1.8750056813398839E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.77486825199540721</v>
+      </c>
+      <c r="E11">
+        <v>-5.0926988687396094E-3</v>
+      </c>
+      <c r="F11">
+        <v>8.3906726035149481E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>19</v>
       </c>
-      <c r="B12" t="n">
-        <v>-0.3454710050642709</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0184718377633032</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.793210482694988</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.005227673333418255</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.08390276650754561</v>
+      <c r="B12">
+        <v>-0.34547100506427092</v>
+      </c>
+      <c r="C12">
+        <v>1.84718377633032E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.79321048269498795</v>
+      </c>
+      <c r="E12">
+        <v>-5.2276733334182552E-3</v>
+      </c>
+      <c r="F12">
+        <v>8.3902766507545606E-2</v>
       </c>
     </row>
   </sheetData>
